--- a/data/baseline+diary/010_-_Full_Utregning.xlsx
+++ b/data/baseline+diary/010_-_Full_Utregning.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitetetitromso-my.sharepoint.com/personal/saa054_uit_no/Documents/0 - Forskerlinjen/.2--MW_Sleep-Article/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D1AA66E-30EA-4CE1-AD9C-166D1C0B071D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="98" documentId="13_ncr:1_{2D1AA66E-30EA-4CE1-AD9C-166D1C0B071D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FED2AD09-09D5-4D07-912E-20CEFDAEA2ED}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-780" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{AD6D089E-9814-4872-BBFB-296E4CC5E2AD}"/>
+    <workbookView xWindow="-165" yWindow="-165" windowWidth="29130" windowHeight="15930" activeTab="3" xr2:uid="{AD6D089E-9814-4872-BBFB-296E4CC5E2AD}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSheet" sheetId="4" r:id="rId1"/>
     <sheet name="Sleep Quiz" sheetId="1" r:id="rId2"/>
     <sheet name="Sleep Diary" sheetId="3" r:id="rId3"/>
-    <sheet name="PANAS" sheetId="2" r:id="rId4"/>
-    <sheet name="Feedback-comments" sheetId="5" r:id="rId5"/>
+    <sheet name="sleepdiary2" sheetId="6" r:id="rId4"/>
+    <sheet name="PANAS" sheetId="2" r:id="rId5"/>
+    <sheet name="Feedback-comments" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="307">
   <si>
     <t>2 - Fatigue</t>
   </si>
@@ -1832,6 +1833,30 @@
   </si>
   <si>
     <t>NS - DP_P</t>
+  </si>
+  <si>
+    <t>q1</t>
+  </si>
+  <si>
+    <t>q2</t>
+  </si>
+  <si>
+    <t>q3</t>
+  </si>
+  <si>
+    <t>q4</t>
+  </si>
+  <si>
+    <t>q5</t>
+  </si>
+  <si>
+    <t>q6</t>
+  </si>
+  <si>
+    <t>q7</t>
+  </si>
+  <si>
+    <t>q8</t>
   </si>
 </sst>
 </file>
@@ -2188,7 +2213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2288,6 +2313,7 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3206,7 +3232,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1222C293-5060-48AA-A12A-214EAB2AD1B7}">
   <dimension ref="A1:AE115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -5384,8 +5410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E76F439B-9760-4E2D-9273-BA22847E3391}">
   <dimension ref="A1:AD63"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W15" sqref="W15:AA15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A17" sqref="A3:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7056,6 +7082,378 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37E16647-AF59-4AE2-A77A-C33BCAF5DE4F}">
+  <dimension ref="A1:I15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
+        <v>272</v>
+      </c>
+      <c r="B1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E1" t="s">
+        <v>302</v>
+      </c>
+      <c r="F1" t="s">
+        <v>303</v>
+      </c>
+      <c r="G1" t="s">
+        <v>304</v>
+      </c>
+      <c r="H1" t="s">
+        <v>305</v>
+      </c>
+      <c r="I1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="75">
+        <v>44263</v>
+      </c>
+      <c r="B2" s="87">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="C2" s="87">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="G2" s="87">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H2" s="87">
+        <v>0.34375</v>
+      </c>
+      <c r="I2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="75">
+        <v>44264</v>
+      </c>
+      <c r="B3" s="87">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C3" s="87">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="G3" s="87">
+        <v>0.3125</v>
+      </c>
+      <c r="H3" s="87">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="75">
+        <v>44265</v>
+      </c>
+      <c r="B4" s="87">
+        <v>0.9375</v>
+      </c>
+      <c r="C4" s="87">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="G4" s="87">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H4" s="87">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="75">
+        <v>44266</v>
+      </c>
+      <c r="B5" s="87">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="C5" s="87">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="G5" s="87">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H5" s="87">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="75">
+        <v>44267</v>
+      </c>
+      <c r="B6" s="87">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C6" s="87">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="G6" s="87">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="H6" s="87">
+        <v>0.28125</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="75">
+        <v>44268</v>
+      </c>
+      <c r="B7" s="87">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="C7" s="87">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="G7" s="87">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H7" s="87">
+        <v>0.375</v>
+      </c>
+      <c r="I7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="75">
+        <v>44269</v>
+      </c>
+      <c r="B8" s="87">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C8" s="87">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="D8">
+        <v>30</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>30</v>
+      </c>
+      <c r="G8" s="87">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="H8" s="87">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="75">
+        <v>44270</v>
+      </c>
+      <c r="B9" s="87">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C9" s="87">
+        <v>0.9375</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9" s="87">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="H9" s="87">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="75">
+        <v>44271</v>
+      </c>
+      <c r="B10" s="87">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C10" s="87">
+        <v>0.9375</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="G10" s="87">
+        <v>0.33055555555555555</v>
+      </c>
+      <c r="H10" s="87">
+        <v>0.33680555555555558</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="75">
+        <v>44272</v>
+      </c>
+      <c r="B11" s="87">
+        <v>0.9375</v>
+      </c>
+      <c r="C11" s="87">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="G11" s="87">
+        <v>0.3298611111111111</v>
+      </c>
+      <c r="H11" s="87">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="75">
+        <v>44273</v>
+      </c>
+      <c r="B12" s="87">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C12" s="87">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="G12" s="87">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="H12" s="87">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="75">
+        <v>44274</v>
+      </c>
+      <c r="B13" s="87">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C13" s="87">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="G13" s="87">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H13" s="87">
+        <v>0.37361111111111112</v>
+      </c>
+      <c r="I13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="75">
+        <v>44275</v>
+      </c>
+      <c r="B14" s="87">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C14" s="87">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="G14" s="87">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="H14" s="87">
+        <v>0.375</v>
+      </c>
+      <c r="I14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="75">
+        <v>44276</v>
+      </c>
+      <c r="B15" s="87">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C15" s="87">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="G15" s="87">
+        <v>0.2951388888888889</v>
+      </c>
+      <c r="H15" s="87">
+        <v>0.33124999999999999</v>
+      </c>
+      <c r="I15">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26A0A131-AB0B-48E7-BA89-4CA72DAFD876}">
   <dimension ref="A1:O23"/>
   <sheetViews>
@@ -7728,7 +8126,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA813570-53F3-4A84-BAEE-DE1DA48FE075}">
   <dimension ref="A1:O59"/>
   <sheetViews>
